--- a/artifactid/files/LoginCred.xlsx
+++ b/artifactid/files/LoginCred.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -34,7 +34,30 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">LocationSelection</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">medication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> name</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
   </si>
   <si>
     <t xml:space="preserve">https://hospital-staging.strongroom.ai/login</t>
@@ -47,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">stew-dazzling-washtub!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guaifenesin 100 mg/5 mL oral liquid</t>
   </si>
 </sst>
 </file>
@@ -56,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,11 +108,26 @@
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -136,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,8 +186,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -166,19 +215,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,23 +243,34 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/artifactid/files/LoginCred.xlsx
+++ b/artifactid/files/LoginCred.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TransferInimprest" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TransferInWithPatient" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TRansferoutImprest" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Credentials" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -34,32 +37,21 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">medication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> name</t>
-    </r>
+    <t xml:space="preserve">medication name</t>
   </si>
   <si>
     <t xml:space="preserve">quantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Current Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://hospital-staging.strongroom.ai/login</t>
   </si>
   <si>
@@ -72,7 +64,118 @@
     <t xml:space="preserve">stew-dazzling-washtub!</t>
   </si>
   <si>
+    <t xml:space="preserve">guaifenesin 100 mg/5 mL oral liquid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">999 mL(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methylprednisolone 4 mg tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3041 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venetoclax 50 mg tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">525 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repreve 2 mg tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naproxen sodium 220 mg tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">499 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescriber Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kammo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3055 mL(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10970 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Balance</t>
+  </si>
+  <si>
     <t xml:space="preserve">guaifenesin 100 mg/5 mL oral liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3042 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">526 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92 tablet(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 tablet(s)</t>
+  </si>
+  <si>
+    <t>999 mL(s)</t>
+  </si>
+  <si>
+    <t>3045 tablet(s)</t>
+  </si>
+  <si>
+    <t>531 tablet(s)</t>
+  </si>
+  <si>
+    <t>99 tablet(s)</t>
+  </si>
+  <si>
+    <t>509 tablet(s)</t>
+  </si>
+  <si>
+    <t>3057 mL(s)</t>
   </si>
 </sst>
 </file>
@@ -82,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,22 +208,15 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
-      <family val="0"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -132,6 +228,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -177,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,6 +303,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,8 +315,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -215,62 +360,153 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.02"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="36.26" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.78" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="23.08" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="20.83" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="30.02" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="16.39" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="14.59" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3045</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>531</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>509</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -281,4 +517,443 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="20.14" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.89" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.39" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="20.3" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="29.87" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="13.47" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="17.78" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="6" width="16.11" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="18.89" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="6" width="13.36" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n" s="6">
+        <v>3059.0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4"/>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>560</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>264</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>10980</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="35.29" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.75" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="15.95" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.58" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="30.56" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="14.16" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="6" width="22.23" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H2" t="n" s="6">
+        <v>998.0</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H3" t="n" s="6">
+        <v>3044.0</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H4" t="n" s="6">
+        <v>530.0</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H5" t="n" s="6">
+        <v>98.0</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="H6" t="n" s="6">
+        <v>508.0</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="29.87" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="14.43" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="17.36" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="22.51" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>